--- a/Team-Data/2008-09/3-23-2008-09.xlsx
+++ b/Team-Data/2008-09/3-23-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,43 +733,43 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E2" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F2" t="n">
         <v>29</v>
       </c>
       <c r="G2" t="n">
-        <v>0.592</v>
+        <v>0.586</v>
       </c>
       <c r="H2" t="n">
         <v>48.1</v>
       </c>
       <c r="I2" t="n">
-        <v>36.4</v>
+        <v>36.2</v>
       </c>
       <c r="J2" t="n">
-        <v>79</v>
+        <v>78.8</v>
       </c>
       <c r="K2" t="n">
-        <v>0.461</v>
+        <v>0.46</v>
       </c>
       <c r="L2" t="n">
         <v>7.3</v>
       </c>
       <c r="M2" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="N2" t="n">
-        <v>0.365</v>
+        <v>0.364</v>
       </c>
       <c r="O2" t="n">
-        <v>18.4</v>
+        <v>18.6</v>
       </c>
       <c r="P2" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
       <c r="Q2" t="n">
         <v>0.733</v>
@@ -717,13 +784,13 @@
         <v>40.2</v>
       </c>
       <c r="U2" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="V2" t="n">
         <v>12.8</v>
       </c>
       <c r="W2" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X2" t="n">
         <v>4.7</v>
@@ -735,19 +802,19 @@
         <v>19.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>98.5</v>
+        <v>98.3</v>
       </c>
       <c r="AC2" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AD2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AE2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF2" t="n">
         <v>12</v>
@@ -759,13 +826,13 @@
         <v>29</v>
       </c>
       <c r="AI2" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AJ2" t="n">
         <v>24</v>
       </c>
       <c r="AK2" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AL2" t="n">
         <v>8</v>
@@ -777,7 +844,7 @@
         <v>17</v>
       </c>
       <c r="AO2" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AP2" t="n">
         <v>12</v>
@@ -795,28 +862,28 @@
         <v>21</v>
       </c>
       <c r="AU2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AV2" t="n">
         <v>5</v>
       </c>
       <c r="AW2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ2" t="n">
         <v>5</v>
       </c>
       <c r="BA2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BB2" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BC2" t="n">
         <v>12</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-23-2008-09</t>
+          <t>2009-03-23</t>
         </is>
       </c>
     </row>
@@ -872,25 +939,25 @@
         <v>0.486</v>
       </c>
       <c r="L3" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="M3" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="N3" t="n">
-        <v>0.396</v>
+        <v>0.392</v>
       </c>
       <c r="O3" t="n">
-        <v>19.8</v>
+        <v>20</v>
       </c>
       <c r="P3" t="n">
-        <v>25.7</v>
+        <v>26</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.771</v>
+        <v>0.768</v>
       </c>
       <c r="R3" t="n">
-        <v>10.5</v>
+        <v>10.6</v>
       </c>
       <c r="S3" t="n">
         <v>31.8</v>
@@ -899,34 +966,34 @@
         <v>42.4</v>
       </c>
       <c r="U3" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="V3" t="n">
         <v>15.7</v>
       </c>
       <c r="W3" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="X3" t="n">
         <v>4.7</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Z3" t="n">
-        <v>23.2</v>
+        <v>23.4</v>
       </c>
       <c r="AA3" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="AB3" t="n">
         <v>101.2</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.300000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="AD3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE3" t="n">
         <v>3</v>
@@ -938,7 +1005,7 @@
         <v>3</v>
       </c>
       <c r="AH3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI3" t="n">
         <v>9</v>
@@ -956,16 +1023,16 @@
         <v>21</v>
       </c>
       <c r="AN3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AP3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AQ3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR3" t="n">
         <v>21</v>
@@ -974,28 +1041,28 @@
         <v>5</v>
       </c>
       <c r="AT3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AU3" t="n">
         <v>4</v>
       </c>
       <c r="AV3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AW3" t="n">
         <v>7</v>
       </c>
       <c r="AX3" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AY3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ3" t="n">
         <v>27</v>
       </c>
       <c r="BA3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BB3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-23-2008-09</t>
+          <t>2009-03-23</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-1.1</v>
       </c>
       <c r="AD4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AE4" t="n">
         <v>18</v>
@@ -1150,7 +1217,7 @@
         <v>26</v>
       </c>
       <c r="AR4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS4" t="n">
         <v>26</v>
@@ -1168,7 +1235,7 @@
         <v>20</v>
       </c>
       <c r="AX4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY4" t="n">
         <v>29</v>
@@ -1177,7 +1244,7 @@
         <v>20</v>
       </c>
       <c r="BA4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB4" t="n">
         <v>29</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-23-2008-09</t>
+          <t>2009-03-23</t>
         </is>
       </c>
     </row>
@@ -1230,46 +1297,46 @@
         <v>37.8</v>
       </c>
       <c r="J5" t="n">
-        <v>83.59999999999999</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>0.452</v>
+        <v>0.453</v>
       </c>
       <c r="L5" t="n">
         <v>6</v>
       </c>
       <c r="M5" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="N5" t="n">
-        <v>0.379</v>
+        <v>0.381</v>
       </c>
       <c r="O5" t="n">
-        <v>19.7</v>
+        <v>19.9</v>
       </c>
       <c r="P5" t="n">
-        <v>24.9</v>
+        <v>25.2</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.793</v>
+        <v>0.791</v>
       </c>
       <c r="R5" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="S5" t="n">
-        <v>30.6</v>
+        <v>30.5</v>
       </c>
       <c r="T5" t="n">
-        <v>42.7</v>
+        <v>42.6</v>
       </c>
       <c r="U5" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="V5" t="n">
-        <v>14.9</v>
+        <v>15.1</v>
       </c>
       <c r="W5" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X5" t="n">
         <v>5.5</v>
@@ -1278,19 +1345,19 @@
         <v>5.6</v>
       </c>
       <c r="Z5" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="AB5" t="n">
-        <v>101.3</v>
+        <v>101.4</v>
       </c>
       <c r="AC5" t="n">
-        <v>-1.3</v>
+        <v>-1.1</v>
       </c>
       <c r="AD5" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AE5" t="n">
         <v>17</v>
@@ -1302,7 +1369,7 @@
         <v>17</v>
       </c>
       <c r="AH5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI5" t="n">
         <v>8</v>
@@ -1317,25 +1384,25 @@
         <v>23</v>
       </c>
       <c r="AM5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN5" t="n">
         <v>6</v>
       </c>
       <c r="AO5" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AP5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AQ5" t="n">
         <v>7</v>
       </c>
       <c r="AR5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AS5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT5" t="n">
         <v>7</v>
@@ -1344,10 +1411,10 @@
         <v>15</v>
       </c>
       <c r="AV5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AW5" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AX5" t="n">
         <v>5</v>
@@ -1359,7 +1426,7 @@
         <v>19</v>
       </c>
       <c r="BA5" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BB5" t="n">
         <v>9</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-23-2008-09</t>
+          <t>2009-03-23</t>
         </is>
       </c>
     </row>
@@ -1394,43 +1461,43 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E6" t="n">
         <v>57</v>
       </c>
       <c r="F6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="n">
-        <v>0.826</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="H6" t="n">
         <v>48.2</v>
       </c>
       <c r="I6" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J6" t="n">
-        <v>78.5</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="K6" t="n">
         <v>0.469</v>
       </c>
       <c r="L6" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="M6" t="n">
         <v>20.5</v>
       </c>
       <c r="N6" t="n">
-        <v>0.388</v>
+        <v>0.386</v>
       </c>
       <c r="O6" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="P6" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="Q6" t="n">
         <v>0.752</v>
@@ -1445,10 +1512,10 @@
         <v>41.7</v>
       </c>
       <c r="U6" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="V6" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="W6" t="n">
         <v>7.5</v>
@@ -1460,19 +1527,19 @@
         <v>4</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AB6" t="n">
-        <v>100.4</v>
+        <v>100.2</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.1</v>
+        <v>8.9</v>
       </c>
       <c r="AD6" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="AE6" t="n">
         <v>1</v>
@@ -1496,19 +1563,19 @@
         <v>5</v>
       </c>
       <c r="AL6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AM6" t="n">
         <v>5</v>
       </c>
       <c r="AN6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ6" t="n">
         <v>25</v>
@@ -1523,25 +1590,25 @@
         <v>13</v>
       </c>
       <c r="AU6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV6" t="n">
         <v>7</v>
       </c>
       <c r="AW6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY6" t="n">
         <v>4</v>
       </c>
       <c r="AZ6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BB6" t="n">
         <v>12</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-23-2008-09</t>
+          <t>2009-03-23</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>1.3</v>
       </c>
       <c r="AD7" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AE7" t="n">
         <v>11</v>
@@ -1675,7 +1742,7 @@
         <v>7</v>
       </c>
       <c r="AK7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL7" t="n">
         <v>14</v>
@@ -1699,7 +1766,7 @@
         <v>15</v>
       </c>
       <c r="AS7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT7" t="n">
         <v>5</v>
@@ -1717,7 +1784,7 @@
         <v>9</v>
       </c>
       <c r="AY7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ7" t="n">
         <v>3</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-23-2008-09</t>
+          <t>2009-03-23</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E8" t="n">
         <v>45</v>
       </c>
       <c r="F8" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G8" t="n">
-        <v>0.634</v>
+        <v>0.643</v>
       </c>
       <c r="H8" t="n">
         <v>48.1</v>
@@ -1776,19 +1843,19 @@
         <v>36.9</v>
       </c>
       <c r="J8" t="n">
-        <v>79.2</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="K8" t="n">
-        <v>0.466</v>
+        <v>0.467</v>
       </c>
       <c r="L8" t="n">
         <v>6.4</v>
       </c>
       <c r="M8" t="n">
-        <v>17.5</v>
+        <v>17.4</v>
       </c>
       <c r="N8" t="n">
-        <v>0.367</v>
+        <v>0.365</v>
       </c>
       <c r="O8" t="n">
         <v>23.2</v>
@@ -1797,16 +1864,16 @@
         <v>30.6</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.76</v>
+        <v>0.758</v>
       </c>
       <c r="R8" t="n">
         <v>11.3</v>
       </c>
       <c r="S8" t="n">
-        <v>30.3</v>
+        <v>30.4</v>
       </c>
       <c r="T8" t="n">
-        <v>41.5</v>
+        <v>41.7</v>
       </c>
       <c r="U8" t="n">
         <v>22</v>
@@ -1815,7 +1882,7 @@
         <v>15.6</v>
       </c>
       <c r="W8" t="n">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="X8" t="n">
         <v>5.9</v>
@@ -1824,49 +1891,49 @@
         <v>5.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="AA8" t="n">
         <v>23.8</v>
       </c>
       <c r="AB8" t="n">
-        <v>103.5</v>
+        <v>103.3</v>
       </c>
       <c r="AC8" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="AD8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AE8" t="n">
         <v>6</v>
       </c>
       <c r="AF8" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH8" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI8" t="n">
         <v>11</v>
       </c>
       <c r="AJ8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK8" t="n">
         <v>6</v>
       </c>
       <c r="AL8" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM8" t="n">
         <v>18</v>
       </c>
       <c r="AN8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1893,13 +1960,13 @@
         <v>26</v>
       </c>
       <c r="AW8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX8" t="n">
         <v>2</v>
       </c>
-      <c r="AX8" t="n">
-        <v>3</v>
-      </c>
       <c r="AY8" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ8" t="n">
         <v>26</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-23-2008-09</t>
+          <t>2009-03-23</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>-0.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AE9" t="n">
         <v>16</v>
@@ -2048,7 +2115,7 @@
         <v>29</v>
       </c>
       <c r="AN9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO9" t="n">
         <v>29</v>
@@ -2081,7 +2148,7 @@
         <v>20</v>
       </c>
       <c r="AY9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ9" t="n">
         <v>18</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-23-2008-09</t>
+          <t>2009-03-23</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-3.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
@@ -2212,7 +2279,7 @@
         <v>23</v>
       </c>
       <c r="AH10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI10" t="n">
         <v>3</v>
@@ -2221,7 +2288,7 @@
         <v>3</v>
       </c>
       <c r="AK10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL10" t="n">
         <v>16</v>
@@ -2239,7 +2306,7 @@
         <v>2</v>
       </c>
       <c r="AQ10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR10" t="n">
         <v>10</v>
@@ -2254,7 +2321,7 @@
         <v>14</v>
       </c>
       <c r="AV10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW10" t="n">
         <v>6</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-23-2008-09</t>
+          <t>2009-03-23</t>
         </is>
       </c>
     </row>
@@ -2424,7 +2491,7 @@
         <v>4</v>
       </c>
       <c r="AR11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS11" t="n">
         <v>3</v>
@@ -2436,28 +2503,28 @@
         <v>19</v>
       </c>
       <c r="AV11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW11" t="n">
         <v>25</v>
       </c>
       <c r="AX11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AY11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ11" t="n">
         <v>2</v>
       </c>
       <c r="BA11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BC11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-23-2008-09</t>
+          <t>2009-03-23</t>
         </is>
       </c>
     </row>
@@ -2564,19 +2631,19 @@
         <v>-2</v>
       </c>
       <c r="AD12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE12" t="n">
         <v>21</v>
       </c>
       <c r="AF12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG12" t="n">
         <v>21</v>
       </c>
       <c r="AH12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI12" t="n">
         <v>4</v>
@@ -2588,7 +2655,7 @@
         <v>21</v>
       </c>
       <c r="AL12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM12" t="n">
         <v>3</v>
@@ -2597,7 +2664,7 @@
         <v>9</v>
       </c>
       <c r="AO12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP12" t="n">
         <v>24</v>
@@ -2606,7 +2673,7 @@
         <v>5</v>
       </c>
       <c r="AR12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS12" t="n">
         <v>4</v>
@@ -2618,7 +2685,7 @@
         <v>6</v>
       </c>
       <c r="AV12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW12" t="n">
         <v>21</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-23-2008-09</t>
+          <t>2009-03-23</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E13" t="n">
         <v>17</v>
       </c>
       <c r="F13" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G13" t="n">
-        <v>0.239</v>
+        <v>0.243</v>
       </c>
       <c r="H13" t="n">
         <v>48.5</v>
@@ -2686,7 +2753,7 @@
         <v>35.8</v>
       </c>
       <c r="J13" t="n">
-        <v>81.59999999999999</v>
+        <v>81.8</v>
       </c>
       <c r="K13" t="n">
         <v>0.438</v>
@@ -2695,19 +2762,19 @@
         <v>6.5</v>
       </c>
       <c r="M13" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="N13" t="n">
-        <v>0.355</v>
+        <v>0.356</v>
       </c>
       <c r="O13" t="n">
-        <v>17.1</v>
+        <v>17.2</v>
       </c>
       <c r="P13" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.742</v>
+        <v>0.743</v>
       </c>
       <c r="R13" t="n">
         <v>11</v>
@@ -2719,19 +2786,19 @@
         <v>39.9</v>
       </c>
       <c r="U13" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="V13" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="W13" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="X13" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Z13" t="n">
         <v>20.4</v>
@@ -2740,13 +2807,13 @@
         <v>19.9</v>
       </c>
       <c r="AB13" t="n">
-        <v>95.09999999999999</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="AC13" t="n">
         <v>-8.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AE13" t="n">
         <v>27</v>
@@ -2758,7 +2825,7 @@
         <v>28</v>
       </c>
       <c r="AH13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI13" t="n">
         <v>27</v>
@@ -2794,13 +2861,13 @@
         <v>25</v>
       </c>
       <c r="AT13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AU13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV13" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AW13" t="n">
         <v>23</v>
@@ -2809,7 +2876,7 @@
         <v>2</v>
       </c>
       <c r="AY13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ13" t="n">
         <v>10</v>
@@ -2818,7 +2885,7 @@
         <v>26</v>
       </c>
       <c r="BB13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BC13" t="n">
         <v>30</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-23-2008-09</t>
+          <t>2009-03-23</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E14" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F14" t="n">
         <v>14</v>
       </c>
       <c r="G14" t="n">
-        <v>0.794</v>
+        <v>0.797</v>
       </c>
       <c r="H14" t="n">
         <v>48.3</v>
@@ -2868,7 +2935,7 @@
         <v>40.8</v>
       </c>
       <c r="J14" t="n">
-        <v>85.40000000000001</v>
+        <v>85.3</v>
       </c>
       <c r="K14" t="n">
         <v>0.478</v>
@@ -2877,58 +2944,58 @@
         <v>6.9</v>
       </c>
       <c r="M14" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="N14" t="n">
-        <v>0.366</v>
+        <v>0.368</v>
       </c>
       <c r="O14" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="P14" t="n">
-        <v>25.9</v>
+        <v>25.8</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.766</v>
+        <v>0.767</v>
       </c>
       <c r="R14" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="S14" t="n">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
       <c r="T14" t="n">
-        <v>44.2</v>
+        <v>44.3</v>
       </c>
       <c r="U14" t="n">
         <v>23.5</v>
       </c>
       <c r="V14" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="W14" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="X14" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y14" t="n">
         <v>4.7</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AA14" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="AB14" t="n">
-        <v>108.4</v>
+        <v>108.2</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AD14" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AE14" t="n">
         <v>2</v>
@@ -2958,22 +3025,22 @@
         <v>14</v>
       </c>
       <c r="AN14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AQ14" t="n">
         <v>16</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>7</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>17</v>
       </c>
       <c r="AR14" t="n">
         <v>3</v>
       </c>
       <c r="AS14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT14" t="n">
         <v>1</v>
@@ -2985,16 +3052,16 @@
         <v>11</v>
       </c>
       <c r="AW14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX14" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AY14" t="n">
         <v>14</v>
       </c>
       <c r="AZ14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA14" t="n">
         <v>8</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-23-2008-09</t>
+          <t>2009-03-23</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E15" t="n">
         <v>17</v>
       </c>
       <c r="F15" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G15" t="n">
-        <v>0.243</v>
+        <v>0.246</v>
       </c>
       <c r="H15" t="n">
         <v>48.4</v>
@@ -3050,19 +3117,19 @@
         <v>34.8</v>
       </c>
       <c r="J15" t="n">
-        <v>77.40000000000001</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="K15" t="n">
         <v>0.449</v>
       </c>
       <c r="L15" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="M15" t="n">
         <v>13.3</v>
       </c>
       <c r="N15" t="n">
-        <v>0.348</v>
+        <v>0.349</v>
       </c>
       <c r="O15" t="n">
         <v>19</v>
@@ -3071,7 +3138,7 @@
         <v>25.1</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.756</v>
+        <v>0.755</v>
       </c>
       <c r="R15" t="n">
         <v>10.6</v>
@@ -3083,16 +3150,16 @@
         <v>38.9</v>
       </c>
       <c r="U15" t="n">
-        <v>17.2</v>
+        <v>17.3</v>
       </c>
       <c r="V15" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="W15" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X15" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Y15" t="n">
         <v>5.5</v>
@@ -3104,13 +3171,13 @@
         <v>21.6</v>
       </c>
       <c r="AB15" t="n">
-        <v>93.09999999999999</v>
+        <v>93.3</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.6</v>
+        <v>-6.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3122,7 +3189,7 @@
         <v>27</v>
       </c>
       <c r="AH15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI15" t="n">
         <v>30</v>
@@ -3131,7 +3198,7 @@
         <v>27</v>
       </c>
       <c r="AK15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL15" t="n">
         <v>27</v>
@@ -3140,13 +3207,13 @@
         <v>27</v>
       </c>
       <c r="AN15" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO15" t="n">
         <v>15</v>
       </c>
       <c r="AP15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ15" t="n">
         <v>22</v>
@@ -3167,13 +3234,13 @@
         <v>24</v>
       </c>
       <c r="AW15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX15" t="n">
         <v>21</v>
       </c>
       <c r="AY15" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AZ15" t="n">
         <v>21</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-23-2008-09</t>
+          <t>2009-03-23</t>
         </is>
       </c>
     </row>
@@ -3214,19 +3281,19 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E16" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F16" t="n">
         <v>32</v>
       </c>
       <c r="G16" t="n">
-        <v>0.543</v>
+        <v>0.536</v>
       </c>
       <c r="H16" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="I16" t="n">
         <v>37.1</v>
@@ -3235,7 +3302,7 @@
         <v>81.40000000000001</v>
       </c>
       <c r="K16" t="n">
-        <v>0.456</v>
+        <v>0.455</v>
       </c>
       <c r="L16" t="n">
         <v>6.9</v>
@@ -3244,19 +3311,19 @@
         <v>19.7</v>
       </c>
       <c r="N16" t="n">
-        <v>0.352</v>
+        <v>0.353</v>
       </c>
       <c r="O16" t="n">
         <v>17.4</v>
       </c>
       <c r="P16" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.76</v>
+        <v>0.761</v>
       </c>
       <c r="R16" t="n">
-        <v>10.2</v>
+        <v>10.1</v>
       </c>
       <c r="S16" t="n">
         <v>29.1</v>
@@ -3271,28 +3338,28 @@
         <v>12.5</v>
       </c>
       <c r="W16" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="X16" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Y16" t="n">
         <v>4.1</v>
       </c>
       <c r="Z16" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="AA16" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AD16" t="n">
         <v>20</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>9</v>
       </c>
       <c r="AE16" t="n">
         <v>14</v>
@@ -3322,7 +3389,7 @@
         <v>10</v>
       </c>
       <c r="AN16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO16" t="n">
         <v>27</v>
@@ -3358,13 +3425,13 @@
         <v>5</v>
       </c>
       <c r="AZ16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA16" t="n">
         <v>24</v>
       </c>
       <c r="BB16" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BC16" t="n">
         <v>15</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-23-2008-09</t>
+          <t>2009-03-23</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E17" t="n">
         <v>31</v>
       </c>
       <c r="F17" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G17" t="n">
-        <v>0.443</v>
+        <v>0.437</v>
       </c>
       <c r="H17" t="n">
         <v>48.3</v>
@@ -3426,70 +3493,70 @@
         <v>16.7</v>
       </c>
       <c r="N17" t="n">
-        <v>0.359</v>
+        <v>0.36</v>
       </c>
       <c r="O17" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="P17" t="n">
         <v>25.8</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.784</v>
+        <v>0.783</v>
       </c>
       <c r="R17" t="n">
         <v>12.1</v>
       </c>
       <c r="S17" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="T17" t="n">
-        <v>41.1</v>
+        <v>41</v>
       </c>
       <c r="U17" t="n">
         <v>21.5</v>
       </c>
       <c r="V17" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W17" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X17" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="Y17" t="n">
         <v>4.7</v>
       </c>
       <c r="Z17" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="AA17" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="AB17" t="n">
-        <v>99.09999999999999</v>
+        <v>99</v>
       </c>
       <c r="AC17" t="n">
-        <v>-0.9</v>
+        <v>-1.1</v>
       </c>
       <c r="AD17" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AE17" t="n">
         <v>18</v>
       </c>
       <c r="AF17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI17" t="n">
         <v>18</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>18</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>19</v>
       </c>
       <c r="AJ17" t="n">
         <v>8</v>
@@ -3504,19 +3571,19 @@
         <v>20</v>
       </c>
       <c r="AN17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO17" t="n">
         <v>6</v>
       </c>
       <c r="AP17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ17" t="n">
         <v>11</v>
       </c>
       <c r="AR17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS17" t="n">
         <v>24</v>
@@ -3528,16 +3595,16 @@
         <v>9</v>
       </c>
       <c r="AV17" t="n">
+        <v>14</v>
+      </c>
+      <c r="AW17" t="n">
         <v>13</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>12</v>
       </c>
       <c r="AX17" t="n">
         <v>29</v>
       </c>
       <c r="AY17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ17" t="n">
         <v>30</v>
@@ -3546,7 +3613,7 @@
         <v>4</v>
       </c>
       <c r="BB17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC17" t="n">
         <v>17</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-23-2008-09</t>
+          <t>2009-03-23</t>
         </is>
       </c>
     </row>
@@ -3578,25 +3645,25 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E18" t="n">
         <v>20</v>
       </c>
       <c r="F18" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G18" t="n">
-        <v>0.282</v>
+        <v>0.286</v>
       </c>
       <c r="H18" t="n">
         <v>48.4</v>
       </c>
       <c r="I18" t="n">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
       <c r="J18" t="n">
-        <v>82.90000000000001</v>
+        <v>83</v>
       </c>
       <c r="K18" t="n">
         <v>0.442</v>
@@ -3608,34 +3675,34 @@
         <v>18.4</v>
       </c>
       <c r="N18" t="n">
-        <v>0.348</v>
+        <v>0.345</v>
       </c>
       <c r="O18" t="n">
         <v>18.8</v>
       </c>
       <c r="P18" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.77</v>
+        <v>0.771</v>
       </c>
       <c r="R18" t="n">
         <v>12.1</v>
       </c>
       <c r="S18" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="T18" t="n">
-        <v>41.9</v>
+        <v>42</v>
       </c>
       <c r="U18" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="V18" t="n">
         <v>14.3</v>
       </c>
       <c r="W18" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="X18" t="n">
         <v>4.1</v>
@@ -3644,7 +3711,7 @@
         <v>6.1</v>
       </c>
       <c r="Z18" t="n">
-        <v>21.8</v>
+        <v>22</v>
       </c>
       <c r="AA18" t="n">
         <v>20.2</v>
@@ -3653,22 +3720,22 @@
         <v>98.40000000000001</v>
       </c>
       <c r="AC18" t="n">
-        <v>-4.7</v>
+        <v>-4.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AE18" t="n">
         <v>25</v>
       </c>
       <c r="AF18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH18" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AI18" t="n">
         <v>16</v>
@@ -3686,25 +3753,25 @@
         <v>15</v>
       </c>
       <c r="AN18" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AO18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP18" t="n">
         <v>18</v>
       </c>
-      <c r="AP18" t="n">
-        <v>17</v>
-      </c>
       <c r="AQ18" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AR18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS18" t="n">
         <v>17</v>
       </c>
       <c r="AT18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU18" t="n">
         <v>21</v>
@@ -3728,7 +3795,7 @@
         <v>22</v>
       </c>
       <c r="BB18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC18" t="n">
         <v>25</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-23-2008-09</t>
+          <t>2009-03-23</t>
         </is>
       </c>
     </row>
@@ -3838,13 +3905,13 @@
         <v>-2.2</v>
       </c>
       <c r="AD19" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AE19" t="n">
         <v>20</v>
       </c>
       <c r="AF19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AG19" t="n">
         <v>20</v>
@@ -3859,22 +3926,22 @@
         <v>19</v>
       </c>
       <c r="AK19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM19" t="n">
         <v>4</v>
       </c>
       <c r="AN19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO19" t="n">
         <v>14</v>
       </c>
       <c r="AP19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ19" t="n">
         <v>12</v>
@@ -3898,10 +3965,10 @@
         <v>22</v>
       </c>
       <c r="AX19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY19" t="n">
         <v>16</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>15</v>
       </c>
       <c r="AZ19" t="n">
         <v>25</v>
@@ -3910,7 +3977,7 @@
         <v>18</v>
       </c>
       <c r="BB19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC19" t="n">
         <v>21</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-23-2008-09</t>
+          <t>2009-03-23</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>2.7</v>
       </c>
       <c r="AD20" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AE20" t="n">
         <v>8</v>
@@ -4029,7 +4096,7 @@
         <v>6</v>
       </c>
       <c r="AG20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH20" t="n">
         <v>28</v>
@@ -4047,7 +4114,7 @@
         <v>10</v>
       </c>
       <c r="AM20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN20" t="n">
         <v>14</v>
@@ -4068,7 +4135,7 @@
         <v>16</v>
       </c>
       <c r="AT20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU20" t="n">
         <v>28</v>
@@ -4086,7 +4153,7 @@
         <v>1</v>
       </c>
       <c r="AZ20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA20" t="n">
         <v>17</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-23-2008-09</t>
+          <t>2009-03-23</t>
         </is>
       </c>
     </row>
@@ -4124,22 +4191,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E21" t="n">
         <v>28</v>
       </c>
       <c r="F21" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4</v>
+        <v>0.406</v>
       </c>
       <c r="H21" t="n">
         <v>48.3</v>
       </c>
       <c r="I21" t="n">
-        <v>38.4</v>
+        <v>38.5</v>
       </c>
       <c r="J21" t="n">
         <v>86.8</v>
@@ -4151,31 +4218,31 @@
         <v>10.2</v>
       </c>
       <c r="M21" t="n">
-        <v>28.3</v>
+        <v>28.4</v>
       </c>
       <c r="N21" t="n">
-        <v>0.36</v>
+        <v>0.359</v>
       </c>
       <c r="O21" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="P21" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.785</v>
+        <v>0.788</v>
       </c>
       <c r="R21" t="n">
         <v>11.2</v>
       </c>
       <c r="S21" t="n">
-        <v>31.2</v>
+        <v>31.1</v>
       </c>
       <c r="T21" t="n">
-        <v>42.4</v>
+        <v>42.3</v>
       </c>
       <c r="U21" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="V21" t="n">
         <v>14.4</v>
@@ -4190,19 +4257,19 @@
         <v>5.4</v>
       </c>
       <c r="Z21" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AA21" t="n">
         <v>19.6</v>
       </c>
       <c r="AB21" t="n">
-        <v>105.5</v>
+        <v>105.6</v>
       </c>
       <c r="AC21" t="n">
         <v>-2.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="AE21" t="n">
         <v>22</v>
@@ -4214,10 +4281,10 @@
         <v>22</v>
       </c>
       <c r="AH21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ21" t="n">
         <v>1</v>
@@ -4232,34 +4299,34 @@
         <v>1</v>
       </c>
       <c r="AN21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP21" t="n">
         <v>21</v>
       </c>
       <c r="AQ21" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AR21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS21" t="n">
         <v>8</v>
       </c>
       <c r="AT21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU21" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AV21" t="n">
         <v>17</v>
       </c>
       <c r="AW21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
@@ -4268,7 +4335,7 @@
         <v>24</v>
       </c>
       <c r="AZ21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BA21" t="n">
         <v>29</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-23-2008-09</t>
+          <t>2009-03-23</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>-5.3</v>
       </c>
       <c r="AD22" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AE22" t="n">
         <v>25</v>
@@ -4414,7 +4481,7 @@
         <v>30</v>
       </c>
       <c r="AN22" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO22" t="n">
         <v>7</v>
@@ -4423,7 +4490,7 @@
         <v>11</v>
       </c>
       <c r="AQ22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR22" t="n">
         <v>4</v>
@@ -4435,13 +4502,13 @@
         <v>4</v>
       </c>
       <c r="AU22" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV22" t="n">
         <v>30</v>
       </c>
       <c r="AW22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AX22" t="n">
         <v>22</v>
@@ -4450,13 +4517,13 @@
         <v>17</v>
       </c>
       <c r="AZ22" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA22" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BC22" t="n">
         <v>26</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-23-2008-09</t>
+          <t>2009-03-23</t>
         </is>
       </c>
     </row>
@@ -4488,22 +4555,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E23" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F23" t="n">
         <v>18</v>
       </c>
       <c r="G23" t="n">
-        <v>0.743</v>
+        <v>0.739</v>
       </c>
       <c r="H23" t="n">
         <v>48.1</v>
       </c>
       <c r="I23" t="n">
-        <v>36</v>
+        <v>36.1</v>
       </c>
       <c r="J23" t="n">
         <v>78.2</v>
@@ -4518,13 +4585,13 @@
         <v>26.6</v>
       </c>
       <c r="N23" t="n">
-        <v>0.386</v>
+        <v>0.387</v>
       </c>
       <c r="O23" t="n">
-        <v>20</v>
+        <v>19.8</v>
       </c>
       <c r="P23" t="n">
-        <v>27.7</v>
+        <v>27.4</v>
       </c>
       <c r="Q23" t="n">
         <v>0.722</v>
@@ -4533,13 +4600,13 @@
         <v>10</v>
       </c>
       <c r="S23" t="n">
-        <v>33.3</v>
+        <v>33.2</v>
       </c>
       <c r="T23" t="n">
-        <v>43.3</v>
+        <v>43.2</v>
       </c>
       <c r="U23" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="V23" t="n">
         <v>14.3</v>
@@ -4554,19 +4621,19 @@
         <v>3.7</v>
       </c>
       <c r="Z23" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AA23" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="AB23" t="n">
         <v>102.3</v>
       </c>
       <c r="AC23" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="AE23" t="n">
         <v>4</v>
@@ -4578,7 +4645,7 @@
         <v>4</v>
       </c>
       <c r="AH23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI23" t="n">
         <v>24</v>
@@ -4587,7 +4654,7 @@
         <v>26</v>
       </c>
       <c r="AK23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL23" t="n">
         <v>1</v>
@@ -4596,10 +4663,10 @@
         <v>2</v>
       </c>
       <c r="AN23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO23" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AP23" t="n">
         <v>4</v>
@@ -4626,13 +4693,13 @@
         <v>19</v>
       </c>
       <c r="AX23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY23" t="n">
         <v>2</v>
       </c>
       <c r="AZ23" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BA23" t="n">
         <v>6</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-23-2008-09</t>
+          <t>2009-03-23</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E24" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F24" t="n">
         <v>33</v>
       </c>
       <c r="G24" t="n">
-        <v>0.522</v>
+        <v>0.515</v>
       </c>
       <c r="H24" t="n">
         <v>48.1</v>
@@ -4688,7 +4755,7 @@
         <v>36.9</v>
       </c>
       <c r="J24" t="n">
-        <v>80.40000000000001</v>
+        <v>80.5</v>
       </c>
       <c r="K24" t="n">
         <v>0.459</v>
@@ -4697,19 +4764,19 @@
         <v>4.2</v>
       </c>
       <c r="M24" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="N24" t="n">
-        <v>0.32</v>
+        <v>0.319</v>
       </c>
       <c r="O24" t="n">
-        <v>19.5</v>
+        <v>19.3</v>
       </c>
       <c r="P24" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.742</v>
+        <v>0.738</v>
       </c>
       <c r="R24" t="n">
         <v>12.8</v>
@@ -4718,13 +4785,13 @@
         <v>29.2</v>
       </c>
       <c r="T24" t="n">
-        <v>41.9</v>
+        <v>42</v>
       </c>
       <c r="U24" t="n">
-        <v>20.4</v>
+        <v>20.6</v>
       </c>
       <c r="V24" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="W24" t="n">
         <v>8.1</v>
@@ -4736,19 +4803,19 @@
         <v>4.8</v>
       </c>
       <c r="Z24" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AA24" t="n">
         <v>21.4</v>
       </c>
       <c r="AB24" t="n">
-        <v>97.59999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="AE24" t="n">
         <v>15</v>
@@ -4760,7 +4827,7 @@
         <v>15</v>
       </c>
       <c r="AH24" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AI24" t="n">
         <v>12</v>
@@ -4796,10 +4863,10 @@
         <v>22</v>
       </c>
       <c r="AT24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV24" t="n">
         <v>18</v>
@@ -4811,7 +4878,7 @@
         <v>10</v>
       </c>
       <c r="AY24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ24" t="n">
         <v>6</v>
@@ -4820,7 +4887,7 @@
         <v>10</v>
       </c>
       <c r="BB24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BC24" t="n">
         <v>14</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-23-2008-09</t>
+          <t>2009-03-23</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E25" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F25" t="n">
         <v>31</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5570000000000001</v>
+        <v>0.551</v>
       </c>
       <c r="H25" t="n">
         <v>48.1</v>
@@ -4870,7 +4937,7 @@
         <v>40.9</v>
       </c>
       <c r="J25" t="n">
-        <v>80.8</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K25" t="n">
         <v>0.506</v>
@@ -4885,31 +4952,31 @@
         <v>0.385</v>
       </c>
       <c r="O25" t="n">
-        <v>20.4</v>
+        <v>20.2</v>
       </c>
       <c r="P25" t="n">
-        <v>27</v>
+        <v>26.8</v>
       </c>
       <c r="Q25" t="n">
         <v>0.755</v>
       </c>
       <c r="R25" t="n">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="S25" t="n">
         <v>31</v>
       </c>
       <c r="T25" t="n">
-        <v>41.4</v>
+        <v>41.3</v>
       </c>
       <c r="U25" t="n">
         <v>23</v>
       </c>
       <c r="V25" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="W25" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="X25" t="n">
         <v>5</v>
@@ -4918,19 +4985,19 @@
         <v>4.3</v>
       </c>
       <c r="Z25" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="AA25" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="AB25" t="n">
-        <v>108.9</v>
+        <v>108.7</v>
       </c>
       <c r="AC25" t="n">
         <v>2.3</v>
       </c>
       <c r="AD25" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="AE25" t="n">
         <v>13</v>
@@ -4942,7 +5009,7 @@
         <v>13</v>
       </c>
       <c r="AH25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI25" t="n">
         <v>1</v>
@@ -4972,19 +5039,19 @@
         <v>23</v>
       </c>
       <c r="AR25" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS25" t="n">
         <v>10</v>
       </c>
       <c r="AT25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU25" t="n">
         <v>3</v>
       </c>
       <c r="AV25" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AW25" t="n">
         <v>24</v>
@@ -4996,10 +5063,10 @@
         <v>9</v>
       </c>
       <c r="AZ25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BA25" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BB25" t="n">
         <v>1</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-23-2008-09</t>
+          <t>2009-03-23</t>
         </is>
       </c>
     </row>
@@ -5049,40 +5116,40 @@
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>36.6</v>
+        <v>36.4</v>
       </c>
       <c r="J26" t="n">
-        <v>79.3</v>
+        <v>79</v>
       </c>
       <c r="K26" t="n">
-        <v>0.461</v>
+        <v>0.46</v>
       </c>
       <c r="L26" t="n">
         <v>7.2</v>
       </c>
       <c r="M26" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="N26" t="n">
-        <v>0.378</v>
+        <v>0.381</v>
       </c>
       <c r="O26" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="P26" t="n">
         <v>24.4</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.77</v>
+        <v>0.767</v>
       </c>
       <c r="R26" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="S26" t="n">
-        <v>28.4</v>
+        <v>28.6</v>
       </c>
       <c r="T26" t="n">
-        <v>41.3</v>
+        <v>41.4</v>
       </c>
       <c r="U26" t="n">
         <v>20.2</v>
@@ -5100,58 +5167,58 @@
         <v>3.9</v>
       </c>
       <c r="Z26" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="AB26" t="n">
-        <v>99.2</v>
+        <v>98.7</v>
       </c>
       <c r="AC26" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="AD26" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AE26" t="n">
         <v>8</v>
       </c>
       <c r="AF26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG26" t="n">
         <v>9</v>
       </c>
       <c r="AH26" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AI26" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL26" t="n">
         <v>9</v>
       </c>
       <c r="AM26" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AN26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO26" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AP26" t="n">
         <v>16</v>
       </c>
       <c r="AQ26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AR26" t="n">
         <v>1</v>
@@ -5160,7 +5227,7 @@
         <v>28</v>
       </c>
       <c r="AT26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU26" t="n">
         <v>22</v>
@@ -5172,22 +5239,22 @@
         <v>26</v>
       </c>
       <c r="AX26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY26" t="n">
         <v>3</v>
       </c>
       <c r="AZ26" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA26" t="n">
         <v>12</v>
       </c>
       <c r="BB26" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BC26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-23-2008-09</t>
+          <t>2009-03-23</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-8.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AE27" t="n">
         <v>30</v>
@@ -5309,7 +5376,7 @@
         <v>5</v>
       </c>
       <c r="AI27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ27" t="n">
         <v>13</v>
@@ -5321,7 +5388,7 @@
         <v>11</v>
       </c>
       <c r="AM27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN27" t="n">
         <v>18</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-23-2008-09</t>
+          <t>2009-03-23</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>3.8</v>
       </c>
       <c r="AD28" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AE28" t="n">
         <v>6</v>
@@ -5506,7 +5573,7 @@
         <v>9</v>
       </c>
       <c r="AN28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO28" t="n">
         <v>30</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-23-2008-09</t>
+          <t>2009-03-23</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>-3.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AE29" t="n">
         <v>23</v>
@@ -5670,10 +5737,10 @@
         <v>23</v>
       </c>
       <c r="AH29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI29" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ29" t="n">
         <v>17</v>
@@ -5685,13 +5752,13 @@
         <v>24</v>
       </c>
       <c r="AM29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN29" t="n">
         <v>12</v>
       </c>
       <c r="AO29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP29" t="n">
         <v>26</v>
@@ -5703,7 +5770,7 @@
         <v>29</v>
       </c>
       <c r="AS29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT29" t="n">
         <v>26</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-23-2008-09</t>
+          <t>2009-03-23</t>
         </is>
       </c>
     </row>
@@ -5840,13 +5907,13 @@
         <v>3.6</v>
       </c>
       <c r="AD30" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AE30" t="n">
         <v>10</v>
       </c>
       <c r="AF30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG30" t="n">
         <v>10</v>
@@ -5894,13 +5961,13 @@
         <v>1</v>
       </c>
       <c r="AV30" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW30" t="n">
         <v>1</v>
       </c>
       <c r="AX30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY30" t="n">
         <v>18</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-23-2008-09</t>
+          <t>2009-03-23</t>
         </is>
       </c>
     </row>
@@ -5944,34 +6011,34 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E31" t="n">
         <v>16</v>
       </c>
       <c r="F31" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G31" t="n">
-        <v>0.222</v>
+        <v>0.225</v>
       </c>
       <c r="H31" t="n">
         <v>48.1</v>
       </c>
       <c r="I31" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="J31" t="n">
-        <v>81.3</v>
+        <v>81.2</v>
       </c>
       <c r="K31" t="n">
-        <v>0.447</v>
+        <v>0.448</v>
       </c>
       <c r="L31" t="n">
         <v>4.8</v>
       </c>
       <c r="M31" t="n">
-        <v>14.8</v>
+        <v>14.6</v>
       </c>
       <c r="N31" t="n">
         <v>0.327</v>
@@ -5989,19 +6056,19 @@
         <v>11.8</v>
       </c>
       <c r="S31" t="n">
-        <v>28.2</v>
+        <v>28.1</v>
       </c>
       <c r="T31" t="n">
-        <v>40</v>
+        <v>39.9</v>
       </c>
       <c r="U31" t="n">
         <v>20.2</v>
       </c>
       <c r="V31" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="W31" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X31" t="n">
         <v>4.2</v>
@@ -6013,7 +6080,7 @@
         <v>20.6</v>
       </c>
       <c r="AA31" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AB31" t="n">
         <v>95.3</v>
@@ -6022,13 +6089,13 @@
         <v>-8</v>
       </c>
       <c r="AD31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
       </c>
       <c r="AF31" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG31" t="n">
         <v>29</v>
@@ -6037,7 +6104,7 @@
         <v>30</v>
       </c>
       <c r="AI31" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AJ31" t="n">
         <v>12</v>
@@ -6070,7 +6137,7 @@
         <v>30</v>
       </c>
       <c r="AT31" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AU31" t="n">
         <v>23</v>
@@ -6079,22 +6146,22 @@
         <v>12</v>
       </c>
       <c r="AW31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AY31" t="n">
         <v>23</v>
       </c>
       <c r="AZ31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA31" t="n">
         <v>28</v>
       </c>
       <c r="BB31" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BC31" t="n">
         <v>28</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-23-2008-09</t>
+          <t>2009-03-23</t>
         </is>
       </c>
     </row>
